--- a/folded_gilbert/seminar/20231205/size.xlsx
+++ b/folded_gilbert/seminar/20231205/size.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LarcH\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C85D16F-8E9B-4FA8-A4B1-92B7F425AC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDFE2DF-F38C-4E0E-9929-57AE12CCB6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
+    <workbookView xWindow="28680" yWindow="6780" windowWidth="29040" windowHeight="15840" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Ibias</t>
     <phoneticPr fontId="1"/>
@@ -126,22 +126,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0.18u</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ibias/2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0.44u</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6.28u</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VM</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -150,15 +138,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.06u</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.31m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.62m</t>
+    <t xml:space="preserve">unit </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ohm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lbias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rbias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gmA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gmB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -205,9 +221,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6392754-1BD9-495F-82B2-613973173B3E}">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -542,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -568,7 +587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -591,7 +610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -614,7 +633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -628,113 +647,128 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <f>4*F11+4*C11</f>
+        <v>1051.5999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11">
+        <v>262.89999999999998</v>
+      </c>
+      <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11">
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11">
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
       <c r="H13" t="s">
         <v>7</v>
       </c>
-      <c r="I13" t="s">
-        <v>27</v>
+      <c r="K13" t="s">
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
       <c r="H14" t="s">
         <v>8</v>
       </c>
-      <c r="I14" t="s">
-        <v>28</v>
+      <c r="K14" t="s">
+        <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15">
-        <v>32</v>
-      </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15">
-        <v>32</v>
-      </c>
       <c r="H15" t="s">
         <v>9</v>
       </c>
-      <c r="I15">
-        <v>16</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="K15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>0.8</v>
-      </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="F16">
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16">
         <v>1.3</v>
       </c>
-      <c r="L16" t="s">
-        <v>19</v>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/folded_gilbert/seminar/20231205/size.xlsx
+++ b/folded_gilbert/seminar/20231205/size.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LarcH\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDFE2DF-F38C-4E0E-9929-57AE12CCB6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3E93E1-A978-4573-A3F0-F38B4898E113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6780" windowWidth="29040" windowHeight="15840" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
-  <si>
-    <t>Ibias</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.1m</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>LC</t>
     <phoneticPr fontId="1"/>
@@ -58,50 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0.72u</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.78u</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LLN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WLN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MLN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LRN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WRN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MRN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -118,14 +66,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0.3u</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.28u</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0.44u</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -154,14 +94,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Lbias</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rbias</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>uA</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -175,6 +107,74 @@
   </si>
   <si>
     <t>gmB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gmMB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gmMMA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LMA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WMA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LMB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WMB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MMB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MMA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rbias/4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lbias/2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -542,233 +542,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6392754-1BD9-495F-82B2-613973173B3E}">
-  <dimension ref="B2:P18"/>
+  <dimension ref="B3:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <f>4*F5+2*C5</f>
+        <v>1051.5999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>262.89999999999998</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>1.3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="O12">
+        <v>1.903</v>
+      </c>
+      <c r="P12" t="s">
         <v>32</v>
-      </c>
-      <c r="P10">
-        <f>4*F11+4*C11</f>
-        <v>1051.5999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>262.89999999999998</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16">
-        <v>0.5</v>
-      </c>
-      <c r="K16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.4">
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/folded_gilbert/seminar/20231205/size.xlsx
+++ b/folded_gilbert/seminar/20231205/size.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LarcH\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3E93E1-A978-4573-A3F0-F38B4898E113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045742E6-64F3-427E-897F-2DD864D6EFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
+    <workbookView xWindow="28680" yWindow="6780" windowWidth="29040" windowHeight="15840" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>LC</t>
     <phoneticPr fontId="1"/>
@@ -66,18 +66,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0.44u</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VM</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0.36u</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">unit </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -175,6 +167,14 @@
   </si>
   <si>
     <t>Lbias/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>um</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IR</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -542,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6392754-1BD9-495F-82B2-613973173B3E}">
-  <dimension ref="B3:P12"/>
+  <dimension ref="B3:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -566,39 +566,42 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
       <c r="O4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P4">
         <f>4*F5+2*C5</f>
-        <v>1051.5999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+        <v>2255.9579999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>602.17899999999997</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>262.89999999999998</v>
@@ -607,90 +610,145 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>0</v>
       </c>
+      <c r="C7">
+        <v>0.72</v>
+      </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>0.18</v>
       </c>
       <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>0.36</v>
+      </c>
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
-        <v>28</v>
+      <c r="L7">
+        <v>0.4</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="O7">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>3.24</v>
+      </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>0.44</v>
       </c>
       <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>0.48</v>
+      </c>
+      <c r="K8" t="s">
         <v>27</v>
       </c>
-      <c r="K8" t="s">
-        <v>29</v>
+      <c r="L8">
+        <v>0.46</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9"/>
+      <c r="C9">
+        <v>32</v>
+      </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9"/>
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
       <c r="G9"/>
       <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9"/>
+        <v>29</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9"/>
+        <v>28</v>
+      </c>
+      <c r="L9">
+        <v>16</v>
+      </c>
       <c r="M9"/>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O9">
         <v>20</v>
       </c>
       <c r="P9"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>4</v>
       </c>
+      <c r="C10">
+        <v>0.7</v>
+      </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
+      <c r="F10">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10">
         <v>0.5</v>
@@ -702,24 +760,63 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="H12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
-        <v>19</v>
+      <c r="I12">
+        <v>2.4180000000000001</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>2.0569999999999999</v>
       </c>
       <c r="N12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O12">
         <v>1.903</v>
       </c>
-      <c r="P12" t="s">
-        <v>32</v>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <f>2*F5</f>
+        <v>525.79999999999995</v>
+      </c>
+      <c r="G14">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="F15">
+        <f>0.5*G14/F14</f>
+        <v>950.93191327500961</v>
       </c>
     </row>
   </sheetData>

--- a/folded_gilbert/seminar/20231205/size.xlsx
+++ b/folded_gilbert/seminar/20231205/size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LarcH\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045742E6-64F3-427E-897F-2DD864D6EFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB3D81C-FF7D-424B-B73D-CA5F6EFBB586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="6780" windowWidth="29040" windowHeight="15840" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>LC</t>
     <phoneticPr fontId="1"/>
@@ -175,6 +175,26 @@
   </si>
   <si>
     <t>IR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pmos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -542,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6392754-1BD9-495F-82B2-613973173B3E}">
-  <dimension ref="B3:P15"/>
+  <dimension ref="B3:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -819,6 +839,44 @@
         <v>950.93191327500961</v>
       </c>
     </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>0.4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/folded_gilbert/seminar/20231205/size.xlsx
+++ b/folded_gilbert/seminar/20231205/size.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LarcH\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0315D4-9825-45DA-A01D-98769FD4321D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6410B6CD-F6A8-4B97-A650-3E731FBB7FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t>L</t>
     <phoneticPr fontId="1"/>
@@ -217,7 +217,7 @@
   </si>
   <si>
     <r>
-      <t>I</t>
+      <t>V</t>
     </r>
     <r>
       <rPr>
@@ -235,7 +235,7 @@
   </si>
   <si>
     <r>
-      <t>I</t>
+      <t>V</t>
     </r>
     <r>
       <rPr>
@@ -253,6 +253,59 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>m/V</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body is source</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gilbert cell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buffer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buf</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
       <t>V</t>
     </r>
     <r>
@@ -265,7 +318,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>lbias</t>
+      <t>in</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -283,30 +336,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>rbias</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>μ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>m/V</t>
+      <t>out</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -384,10 +414,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,29 +734,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6392754-1BD9-495F-82B2-613973173B3E}">
-  <dimension ref="B2:P28"/>
+  <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="4" width="9" style="1"/>
+    <col min="14" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="D3" s="3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -736,38 +808,97 @@
         <v>0.36</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.32</v>
+      </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
+      <c r="N4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>16</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -776,27 +907,76 @@
       <c r="D7" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -810,34 +990,54 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.32</v>
+      </c>
       <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -846,27 +1046,50 @@
       <c r="D13" s="1">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
+      <c r="J13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="2" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -875,36 +1098,66 @@
       <c r="D16" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
+      <c r="J16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="2" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -913,82 +1166,153 @@
       <c r="D20" s="1">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="3"/>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="1">
         <v>3.24</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="3"/>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="B24" s="2" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="1">
         <v>950</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="B25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2"/>
+      <c r="J24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="1">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="J25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="B28" s="2" t="s">
+      <c r="J26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B28:C28"/>
+  <mergeCells count="30">
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J19"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B16:B19"/>

--- a/folded_gilbert/seminar/20231205/size.xlsx
+++ b/folded_gilbert/seminar/20231205/size.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LarcH\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6410B6CD-F6A8-4B97-A650-3E731FBB7FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E71BF7-A407-486A-956E-9E692751C4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -737,16 +737,16 @@
   <dimension ref="B2:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="4" width="9" style="1"/>
     <col min="14" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -797,7 +797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="3" t="s">
@@ -839,7 +839,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -865,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -897,7 +897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>20</v>
@@ -930,7 +930,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:19" ht="19.2" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>0.44</v>
+        <v>0.78</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>21</v>
@@ -959,7 +959,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -975,7 +975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:19" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:19" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -997,14 +997,14 @@
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="M10"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -1020,7 +1020,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -1036,7 +1036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -1121,10 +1121,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -1137,10 +1137,10 @@
         <v>2</v>
       </c>
       <c r="L18" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="20.25" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -1153,10 +1153,10 @@
         <v>10</v>
       </c>
       <c r="L19" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1173,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
       <c r="C21" s="1" t="s">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="1">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -1205,10 +1205,10 @@
         <v>2</v>
       </c>
       <c r="L22" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="20.25" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -1221,10 +1221,10 @@
         <v>11</v>
       </c>
       <c r="L23" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="20.25" x14ac:dyDescent="0.4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
@@ -1237,10 +1237,10 @@
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="1">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="20.25" x14ac:dyDescent="0.4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
@@ -1269,24 +1269,42 @@
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J19"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N7:O7"/>
@@ -1299,24 +1317,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="N4:N6"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/folded_gilbert/seminar/20231205/size.xlsx
+++ b/folded_gilbert/seminar/20231205/size.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LarcH\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E71BF7-A407-486A-956E-9E692751C4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2AA18D-7815-4311-8775-491884D85230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
+    <workbookView xWindow="28680" yWindow="6780" windowWidth="29040" windowHeight="15840" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="24">
   <si>
     <t>L</t>
     <phoneticPr fontId="1"/>
@@ -338,6 +338,14 @@
       </rPr>
       <t>out</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body is source large output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.6k</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -734,19 +742,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6392754-1BD9-495F-82B2-613973173B3E}">
-  <dimension ref="B2:S29"/>
+  <dimension ref="B2:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="4" width="9" style="1"/>
     <col min="14" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
@@ -765,8 +773,17 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="R2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -796,8 +813,18 @@
       <c r="P3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -836,10 +863,21 @@
         <v>0.32</v>
       </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="R4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -867,8 +905,18 @@
       <c r="P5" s="1">
         <v>1.88</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="R5" s="3"/>
+      <c r="S5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -896,8 +944,18 @@
       <c r="P6" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R6" s="3"/>
+      <c r="S6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>16</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -929,8 +987,20 @@
       <c r="P7" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="R7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" ht="20.25" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>1</v>
@@ -958,8 +1028,18 @@
       <c r="P8" s="1">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="R8" s="3"/>
+      <c r="S8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -974,8 +1054,18 @@
       <c r="L9" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R9" s="3"/>
+      <c r="S9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>32</v>
+      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1001,10 +1091,18 @@
       </c>
       <c r="M10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="U10"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -1019,8 +1117,18 @@
       <c r="L11" s="1">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="R11" s="3"/>
+      <c r="S11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -1035,8 +1143,18 @@
       <c r="L12" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R12" s="3"/>
+      <c r="S12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>16</v>
+      </c>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1055,8 +1173,20 @@
       <c r="L13" s="1">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="R13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -1071,8 +1201,18 @@
       <c r="L14" s="1">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="R14" s="3"/>
+      <c r="S14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -1087,8 +1227,18 @@
       <c r="L15" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R15" s="3"/>
+      <c r="S15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="1">
+        <v>16</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1257,20 @@
       <c r="L16" s="1">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="R16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -1123,8 +1285,18 @@
       <c r="L17" s="1">
         <v>2.16</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="R17" s="3"/>
+      <c r="S17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -1139,8 +1311,18 @@
       <c r="L18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="R18" s="3"/>
+      <c r="S18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="1">
+        <v>16</v>
+      </c>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="2:24" ht="20.25" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -1155,8 +1337,18 @@
       <c r="L19" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R19" s="3"/>
+      <c r="S19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1173,10 +1365,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
       <c r="C21" s="1" t="s">
         <v>1</v>
@@ -1189,10 +1393,20 @@
         <v>1</v>
       </c>
       <c r="L21" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -1207,8 +1421,18 @@
       <c r="L22" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="R22" s="3"/>
+      <c r="S22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="1">
+        <v>32</v>
+      </c>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="2:24" ht="20.25" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -1223,8 +1447,18 @@
       <c r="L23" s="1">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="R23" s="3"/>
+      <c r="S23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="2:24" ht="20.25" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
@@ -1239,8 +1473,18 @@
       <c r="L24" s="1">
         <v>510</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="R24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="2:24" ht="20.25" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
@@ -1255,8 +1499,18 @@
       <c r="L25" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="R25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="2:24" ht="20.25" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
@@ -1271,40 +1525,47 @@
       <c r="L26" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="R26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
       <c r="C28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J19"/>
+  <mergeCells count="45">
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="V4:V6"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N7:O7"/>
@@ -1317,6 +1578,24 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="N4:N6"/>
     <mergeCell ref="N3:O3"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/folded_gilbert/seminar/20231205/size.xlsx
+++ b/folded_gilbert/seminar/20231205/size.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LarcH\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2AA18D-7815-4311-8775-491884D85230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6183828-872C-432B-B824-08CCAF24EA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6780" windowWidth="29040" windowHeight="15840" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
+    <workbookView xWindow="6450" yWindow="465" windowWidth="17265" windowHeight="13770" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="24">
   <si>
     <t>L</t>
     <phoneticPr fontId="1"/>
@@ -745,7 +745,7 @@
   <dimension ref="B2:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>1.88</v>
+        <v>3.52</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="1" t="s">
@@ -942,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="1" t="s">
@@ -980,13 +980,8 @@
       <c r="L7" s="1">
         <v>0.18</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="1">
-        <v>1.4</v>
-      </c>
       <c r="R7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1021,13 +1016,8 @@
       <c r="L8" s="1">
         <v>0.78</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="1">
-        <v>0.33</v>
-      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="1" t="s">
         <v>1</v>
@@ -1551,21 +1541,24 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J19"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N7:O7"/>
@@ -1578,24 +1571,21 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="N4:N6"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/folded_gilbert/seminar/20231205/size.xlsx
+++ b/folded_gilbert/seminar/20231205/size.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LarcH\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6183828-872C-432B-B824-08CCAF24EA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DA2850-2B53-4861-8959-BE4A6A938F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="465" windowWidth="17265" windowHeight="13770" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
+    <workbookView xWindow="28680" yWindow="6780" windowWidth="29040" windowHeight="15840" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="25">
   <si>
     <t>L</t>
     <phoneticPr fontId="1"/>
@@ -346,6 +346,10 @@
   </si>
   <si>
     <t>1.6k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buf</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -745,7 +749,7 @@
   <dimension ref="B2:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -820,7 +824,9 @@
       <c r="T3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="3"/>
+      <c r="V3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W3" s="3"/>
       <c r="X3" s="2"/>
     </row>
@@ -874,8 +880,12 @@
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
@@ -913,8 +923,12 @@
         <v>0.44</v>
       </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
+      <c r="W5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
@@ -952,8 +966,12 @@
         <v>16</v>
       </c>
       <c r="V6" s="3"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
+      <c r="W6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
@@ -1541,24 +1559,21 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="V4:V6"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N7:O7"/>
@@ -1571,21 +1586,24 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="N4:N6"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/folded_gilbert/seminar/20231205/size.xlsx
+++ b/folded_gilbert/seminar/20231205/size.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LarcH\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DA2850-2B53-4861-8959-BE4A6A938F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59878FD-7342-4DD5-BE79-1D965A88A1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6780" windowWidth="29040" windowHeight="15840" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6392754-1BD9-495F-82B2-613973173B3E}">
   <dimension ref="B2:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1559,21 +1559,24 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J19"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N7:O7"/>
@@ -1586,24 +1589,21 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="N4:N6"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/folded_gilbert/seminar/20231205/size.xlsx
+++ b/folded_gilbert/seminar/20231205/size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\reserch\folded_gilbert\seminar\20231205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59878FD-7342-4DD5-BE79-1D965A88A1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FE01EB-D64A-4C7F-BD8E-3807BF8835DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{115ACCE2-D67E-4656-AC3A-0C78F4E5F104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="24">
   <si>
     <t>L</t>
     <phoneticPr fontId="1"/>
@@ -342,10 +342,6 @@
   </si>
   <si>
     <t>body is source large output</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.6k</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -405,12 +401,102 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -419,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,6 +516,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6392754-1BD9-495F-82B2-613973173B3E}">
-  <dimension ref="B2:X29"/>
+  <dimension ref="B2:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -787,7 +900,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -825,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="2"/>
@@ -880,10 +993,10 @@
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
+      <c r="W4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
         <v>0.32</v>
       </c>
     </row>
@@ -920,17 +1033,17 @@
         <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>0.44</v>
+        <v>1.46</v>
       </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1">
+      <c r="W5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -963,13 +1076,13 @@
         <v>2</v>
       </c>
       <c r="T6" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="V6" s="3"/>
-      <c r="W6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X6" s="1">
+      <c r="W6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1007,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -1041,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>0.98</v>
+        <v>1.72</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1067,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="T9" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1382,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>0.18</v>
+        <v>0.72</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -1408,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="1">
-        <v>0.44</v>
+        <v>1.48</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -1485,8 +1598,8 @@
         <v>12</v>
       </c>
       <c r="S24" s="3"/>
-      <c r="T24" s="1" t="s">
-        <v>23</v>
+      <c r="T24" s="1">
+        <v>650</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -1556,27 +1669,204 @@
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+    </row>
+    <row r="33" spans="11:21" x14ac:dyDescent="0.4">
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+    </row>
+    <row r="34" spans="11:21" x14ac:dyDescent="0.4">
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+    </row>
+    <row r="35" spans="11:21" x14ac:dyDescent="0.4">
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="11:21" x14ac:dyDescent="0.4">
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+    </row>
+    <row r="37" spans="11:21" x14ac:dyDescent="0.4">
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+    </row>
+    <row r="38" spans="11:21" x14ac:dyDescent="0.4">
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+    </row>
+    <row r="39" spans="11:21" x14ac:dyDescent="0.4">
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+    </row>
+    <row r="40" spans="11:21" x14ac:dyDescent="0.4">
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+    </row>
+    <row r="41" spans="11:21" x14ac:dyDescent="0.4">
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+    </row>
+    <row r="42" spans="11:21" x14ac:dyDescent="0.4">
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="V4:V6"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N7:O7"/>
@@ -1589,21 +1879,24 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="N4:N6"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
